--- a/Data/datos_terreno_4.xlsx
+++ b/Data/datos_terreno_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Tipo Cálculo</t>
-  </si>
-  <si>
-    <t>nd</t>
   </si>
   <si>
     <t>d</t>
@@ -462,7 +459,7 @@
         <v>6.5</v>
       </c>
       <c r="B2" s="1">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>16</v>
@@ -504,7 +501,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">

--- a/Data/datos_terreno_4.xlsx
+++ b/Data/datos_terreno_4.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet r:id="rId2" sheetId="2" name="Hoja2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -40,7 +41,7 @@
     <t>Tipo Cálculo</t>
   </si>
   <si>
-    <t>d</t>
+    <t>Drenado</t>
   </si>
 </sst>
 </file>
@@ -90,8 +91,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,114 +428,149 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>6.5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>12</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>16</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>150</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>15</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>3.5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <v>19</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>21</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>200</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>25</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>30</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1">
+      <c r="B4" s="6"/>
+      <c r="C4" s="4">
         <v>19</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>21</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>250</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>30</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2">
+        <f>"Drenado"</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="2">
+        <f>"No drenado"</f>
       </c>
     </row>
   </sheetData>

--- a/Data/datos_terreno_4.xlsx
+++ b/Data/datos_terreno_4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Espesor [m]</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Drenado</t>
+  </si>
+  <si>
+    <t>No drenado</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">

--- a/Data/datos_terreno_4.xlsx
+++ b/Data/datos_terreno_4.xlsx
@@ -41,10 +41,10 @@
     <t>Tipo Cálculo</t>
   </si>
   <si>
-    <t>Drenado</t>
-  </si>
-  <si>
-    <t>No drenado</t>
+    <t>d</t>
+  </si>
+  <si>
+    <t>nd</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
